--- a/data/financial_statements/sofp/NEM.xlsx
+++ b/data/financial_statements/sofp/NEM.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -131,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,129 +607,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>3813000000</v>
@@ -627,13 +738,13 @@
         <v>4358000000</v>
       </c>
       <c r="D2">
-        <v>4394000000</v>
+        <v>4344000000</v>
       </c>
       <c r="E2">
-        <v>5076000000</v>
+        <v>5074000000</v>
       </c>
       <c r="F2">
-        <v>4795000000</v>
+        <v>4793000000</v>
       </c>
       <c r="G2">
         <v>4805000000</v>
@@ -739,8 +850,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>289000000</v>
@@ -861,23 +972,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1694000000</v>
+        <v>1000000000</v>
       </c>
       <c r="C4">
-        <v>1674000000</v>
+        <v>922000000</v>
       </c>
       <c r="D4">
-        <v>1756000000</v>
+        <v>956000000</v>
       </c>
       <c r="E4">
-        <v>1787000000</v>
+        <v>930000000</v>
       </c>
       <c r="F4">
-        <v>1939000000</v>
+        <v>998000000</v>
       </c>
       <c r="G4">
         <v>965000000</v>
@@ -983,23 +1094,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>524000000</v>
+        <v>1218000000</v>
       </c>
       <c r="C5">
-        <v>511000000</v>
+        <v>1263000000</v>
       </c>
       <c r="D5">
-        <v>496000000</v>
+        <v>1346000000</v>
       </c>
       <c r="E5">
-        <v>496000000</v>
+        <v>1355000000</v>
       </c>
       <c r="F5">
-        <v>404000000</v>
+        <v>1347000000</v>
       </c>
       <c r="G5">
         <v>1334000000</v>
@@ -1105,8 +1216,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>6320000000</v>
@@ -1227,8 +1338,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>24150000000</v>
@@ -1349,23 +1460,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>3296000000</v>
+        <v>3198000000</v>
       </c>
       <c r="C8">
-        <v>3302000000</v>
+        <v>3203000000</v>
       </c>
       <c r="D8">
-        <v>3435000000</v>
+        <v>3335000000</v>
       </c>
       <c r="E8">
-        <v>3393000000</v>
+        <v>3243000000</v>
       </c>
       <c r="F8">
-        <v>3318000000</v>
+        <v>3173000000</v>
       </c>
       <c r="G8">
         <v>3220000000</v>
@@ -1471,8 +1582,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>2771000000</v>
@@ -1521,8 +1632,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>208000000</v>
@@ -1643,23 +1754,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>2398000000</v>
+        <v>657000000</v>
       </c>
       <c r="C11">
-        <v>2370000000</v>
+        <v>681000000</v>
       </c>
       <c r="D11">
-        <v>2351000000</v>
+        <v>661000000</v>
       </c>
       <c r="E11">
-        <v>2311000000</v>
+        <v>686000000</v>
       </c>
       <c r="F11">
-        <v>2280000000</v>
+        <v>634000000</v>
       </c>
       <c r="G11">
         <v>612000000</v>
@@ -1765,8 +1876,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>32823000000</v>
@@ -1887,8 +1998,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>39143000000</v>
@@ -2009,8 +2120,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>570000000</v>
@@ -2131,8 +2242,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>94000000</v>
@@ -2144,10 +2255,10 @@
         <v>104000000</v>
       </c>
       <c r="E15">
-        <v>193000000</v>
+        <v>87000000</v>
       </c>
       <c r="F15">
-        <v>616000000</v>
+        <v>492000000</v>
       </c>
       <c r="G15">
         <v>491000000</v>
@@ -2250,8 +2361,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>94000000</v>
@@ -2306,8 +2417,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>174000000</v>
@@ -2428,8 +2539,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1486000000</v>
@@ -2444,7 +2555,7 @@
         <v>1559000000</v>
       </c>
       <c r="F18">
-        <v>1380000000</v>
+        <v>1398000000</v>
       </c>
       <c r="G18">
         <v>1350000000</v>
@@ -2550,8 +2661,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>2324000000</v>
@@ -2672,8 +2783,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>6033000000</v>
@@ -2688,7 +2799,7 @@
         <v>6109000000</v>
       </c>
       <c r="F20">
-        <v>5626000000</v>
+        <v>5540000000</v>
       </c>
       <c r="G20">
         <v>5556000000</v>
@@ -2794,8 +2905,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F21">
         <v>132000000</v>
@@ -2823,23 +2934,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>1656000000</v>
+        <v>1864000000</v>
       </c>
       <c r="C22">
-        <v>1767000000</v>
+        <v>1976000000</v>
       </c>
       <c r="D22">
-        <v>1818000000</v>
+        <v>2045000000</v>
       </c>
       <c r="E22">
-        <v>1875000000</v>
+        <v>2144000000</v>
       </c>
       <c r="F22">
-        <v>1922000000</v>
+        <v>2235000000</v>
       </c>
       <c r="G22">
         <v>2239000000</v>
@@ -2945,8 +3056,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3001,8 +3112,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>7522000000</v>
@@ -3017,7 +3128,7 @@
         <v>7796000000</v>
       </c>
       <c r="F24">
-        <v>5787000000</v>
+        <v>6005000000</v>
       </c>
       <c r="G24">
         <v>6001000000</v>
@@ -3123,8 +3234,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>15419000000</v>
@@ -3245,8 +3356,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>17743000000</v>
@@ -3258,10 +3369,10 @@
         <v>18282000000</v>
       </c>
       <c r="E26">
-        <v>18703000000</v>
+        <v>18751000000</v>
       </c>
       <c r="F26">
-        <v>16579000000</v>
+        <v>16627000000</v>
       </c>
       <c r="G26">
         <v>16617000000</v>
@@ -3367,8 +3478,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>17354000000</v>
@@ -3489,8 +3600,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>1279000000</v>
@@ -3611,8 +3722,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2831000000</v>
@@ -3733,8 +3844,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>238000000</v>
@@ -3798,23 +3909,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>21219000000</v>
+        <v>21400000000</v>
       </c>
       <c r="C31">
-        <v>21421000000</v>
+        <v>21599000000</v>
       </c>
       <c r="D31">
-        <v>21449000000</v>
+        <v>21631000000</v>
       </c>
       <c r="E31">
-        <v>22022000000</v>
+        <v>21813000000</v>
       </c>
       <c r="F31">
-        <v>22712000000</v>
+        <v>23238000000</v>
       </c>
       <c r="G31">
         <v>24060000000</v>
@@ -3920,23 +4031,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>21219000000</v>
+        <v>21400000000</v>
       </c>
       <c r="C32">
-        <v>21421000000</v>
+        <v>21599000000</v>
       </c>
       <c r="D32">
-        <v>21449000000</v>
+        <v>21631000000</v>
       </c>
       <c r="E32">
-        <v>22022000000</v>
+        <v>21813000000</v>
       </c>
       <c r="F32">
-        <v>22712000000</v>
+        <v>23238000000</v>
       </c>
       <c r="G32">
         <v>24060000000</v>
@@ -4042,8 +4153,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>39143000000</v>
@@ -4164,8 +4275,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>793000000</v>
@@ -4286,8 +4397,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>18629000000</v>
@@ -4408,8 +4519,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>2314000000</v>
@@ -4418,13 +4529,13 @@
         <v>1815000000</v>
       </c>
       <c r="D36">
-        <v>1816000000</v>
+        <v>1866000000</v>
       </c>
       <c r="E36">
-        <v>1226000000</v>
+        <v>1122000000</v>
       </c>
       <c r="F36">
-        <v>1447000000</v>
+        <v>1239000000</v>
       </c>
       <c r="G36">
         <v>1242000000</v>
@@ -4530,8 +4641,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>6127000000</v>
@@ -4543,10 +4654,10 @@
         <v>6210000000</v>
       </c>
       <c r="E37">
-        <v>6302000000</v>
+        <v>6196000000</v>
       </c>
       <c r="F37">
-        <v>6242000000</v>
+        <v>6032000000</v>
       </c>
       <c r="G37">
         <v>6047000000</v>
